--- a/VRT/TestData/UserManagementTestData.xlsx
+++ b/VRT/TestData/UserManagementTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stored-Code\TestAutomation\Development\Root\Source\VRT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72135FE9-DD4B-4E56-9F56-2F785A21E7EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5FAC00-639C-4C9D-BAD6-D2A51B310313}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FFF56094-AA49-43C9-8779-4520FC744D16}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="tcADMN124" sheetId="1" r:id="rId1"/>
     <sheet name="tcADMN125" sheetId="2" r:id="rId2"/>
     <sheet name="tcADMN125a" sheetId="3" r:id="rId3"/>
+    <sheet name="tcADMN129" sheetId="4" r:id="rId4"/>
+    <sheet name="tcADMN129a" sheetId="5" r:id="rId5"/>
+    <sheet name="tcADMN133" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -65,9 +68,6 @@
     <t>Select</t>
   </si>
   <si>
-    <t>User Name cannot be blank.Please provoide a valid User Name</t>
-  </si>
-  <si>
     <t>@</t>
   </si>
   <si>
@@ -122,7 +122,40 @@
     <t>A 2</t>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
+    <t>User ID must contain only letters and numbers</t>
+  </si>
+  <si>
+    <t>a1!</t>
+  </si>
+  <si>
+    <t>1A-</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>c_</t>
+  </si>
+  <si>
+    <t>A1B</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>User Id already in use. Please try different User Id</t>
+  </si>
+  <si>
+    <t>User Name cannot be blank. Please provide a valid User Name</t>
   </si>
 </sst>
 </file>
@@ -152,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +201,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -199,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -225,6 +276,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,7 +608,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +661,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -606,10 +672,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454D3435-3578-43C7-9257-8386301BE45D}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +687,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -645,11 +711,11 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="1">
         <v>12</v>
       </c>
@@ -660,18 +726,18 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>122</v>
@@ -683,18 +749,18 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>123</v>
@@ -706,18 +772,18 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>145</v>
@@ -729,18 +795,18 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
         <v>127</v>
@@ -752,87 +818,10 @@
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -844,9 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D45820-850F-4509-AC94-52EF65FB8800}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -877,10 +864,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="8">
         <v>1234</v>
@@ -892,15 +879,15 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="8">
         <v>1234</v>
@@ -912,15 +899,15 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="8">
         <v>1234</v>
@@ -932,15 +919,15 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="C5" s="8">
         <v>1234</v>
@@ -952,15 +939,15 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="8">
         <v>1234</v>
@@ -972,11 +959,356 @@
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828ED7CA-A5E7-42AA-9988-3D2A4554DADC}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085DC14B-8E32-4F79-8AE0-D17B1FBB9EC7}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4997FD9B-B47B-428B-A8DC-F6C662B513D5}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="45.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VRT/TestData/UserManagementTestData.xlsx
+++ b/VRT/TestData/UserManagementTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stored-Code\TestAutomation\Development\Root\Source\VRT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5FAC00-639C-4C9D-BAD6-D2A51B310313}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7306E6F-8C3A-4027-89AF-8582F9DE8E72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FFF56094-AA49-43C9-8779-4520FC744D16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{FFF56094-AA49-43C9-8779-4520FC744D16}"/>
   </bookViews>
   <sheets>
     <sheet name="tcADMN124" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="tcADMN129" sheetId="4" r:id="rId4"/>
     <sheet name="tcADMN129a" sheetId="5" r:id="rId5"/>
     <sheet name="tcADMN133" sheetId="6" r:id="rId6"/>
+    <sheet name="tcADMN134" sheetId="7" r:id="rId7"/>
+    <sheet name="tcADMN146" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -65,97 +67,139 @@
     <t>Sr Manager</t>
   </si>
   <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>testID1</t>
+  </si>
+  <si>
+    <t>System Administrator</t>
+  </si>
+  <si>
+    <t>User name must start with letter &amp; can contain letters,numbers,-,_ &amp; space</t>
+  </si>
+  <si>
+    <t>1@</t>
+  </si>
+  <si>
+    <t>1~</t>
+  </si>
+  <si>
+    <t>1!</t>
+  </si>
+  <si>
+    <t>1A%</t>
+  </si>
+  <si>
+    <t>testID2</t>
+  </si>
+  <si>
+    <t>testID3</t>
+  </si>
+  <si>
+    <t>testID4</t>
+  </si>
+  <si>
+    <t>testID5</t>
+  </si>
+  <si>
+    <t>a_</t>
+  </si>
+  <si>
+    <t>testID11</t>
+  </si>
+  <si>
+    <t>a-</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>A 2</t>
+  </si>
+  <si>
+    <t>User ID must contain only letters and numbers</t>
+  </si>
+  <si>
+    <t>a1!</t>
+  </si>
+  <si>
+    <t>1A-</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>c_</t>
+  </si>
+  <si>
+    <t>A1B</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>User Id already in use. Please try different User Id</t>
+  </si>
+  <si>
+    <t>User Name cannot be blank. Please provide a valid User Name</t>
+  </si>
+  <si>
+    <t>AZ1</t>
+  </si>
+  <si>
+    <t>A3Q</t>
+  </si>
+  <si>
+    <t>User Id cannot be blank. Please provide a valid User Id</t>
+  </si>
+  <si>
+    <t>Please select valid user type</t>
+  </si>
+  <si>
+    <t>Please provide valid title</t>
+  </si>
+  <si>
     <t>Select</t>
   </si>
   <si>
-    <t>@</t>
-  </si>
-  <si>
-    <t>testID1</t>
-  </si>
-  <si>
-    <t>System Administrator</t>
-  </si>
-  <si>
-    <t>User name must start with letter &amp; can contain letters,numbers,-,_ &amp; space</t>
-  </si>
-  <si>
-    <t>1@</t>
-  </si>
-  <si>
-    <t>1~</t>
-  </si>
-  <si>
-    <t>1!</t>
-  </si>
-  <si>
-    <t>1A%</t>
-  </si>
-  <si>
-    <t>testID2</t>
-  </si>
-  <si>
-    <t>testID3</t>
-  </si>
-  <si>
-    <t>testID4</t>
-  </si>
-  <si>
-    <t>testID5</t>
-  </si>
-  <si>
-    <t>a_</t>
-  </si>
-  <si>
-    <t>testID11</t>
-  </si>
-  <si>
-    <t>a-</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>A 2</t>
-  </si>
-  <si>
-    <t>User ID must contain only letters and numbers</t>
-  </si>
-  <si>
-    <t>a1!</t>
-  </si>
-  <si>
-    <t>1A-</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>c_</t>
-  </si>
-  <si>
-    <t>A1B</t>
-  </si>
-  <si>
-    <t>U11</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>User Id already in use. Please try different User Id</t>
-  </si>
-  <si>
-    <t>User Name cannot be blank. Please provide a valid User Name</t>
+    <t>User1</t>
+  </si>
+  <si>
+    <t>User Name already in use. Please try different User Name</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>Ac_</t>
+  </si>
+  <si>
+    <t>a-B5</t>
+  </si>
+  <si>
+    <t>Sr-Manager</t>
+  </si>
+  <si>
+    <t>Sr_Manager</t>
+  </si>
+  <si>
+    <t>SRMANAGER</t>
+  </si>
+  <si>
+    <t>aaa</t>
   </si>
 </sst>
 </file>
@@ -250,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -288,7 +332,16 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6844256-8549-4F29-AEC2-F3718E7B5845}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,10 +711,75 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="1">
+        <v>123</v>
+      </c>
+      <c r="D3" s="1">
+        <v>123</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>123</v>
+      </c>
+      <c r="D4" s="1">
+        <v>123</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>123</v>
+      </c>
+      <c r="D5" s="1">
+        <v>123</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -674,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454D3435-3578-43C7-9257-8386301BE45D}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,11 +829,11 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" s="1">
         <v>12</v>
       </c>
@@ -726,18 +844,18 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>122</v>
@@ -749,18 +867,18 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>123</v>
@@ -772,18 +890,18 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>145</v>
@@ -795,18 +913,18 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>127</v>
@@ -818,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -864,10 +982,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="8">
         <v>1234</v>
@@ -879,15 +997,15 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="8">
         <v>1234</v>
@@ -899,15 +1017,15 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="8">
         <v>1234</v>
@@ -919,15 +1037,15 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="C5" s="8">
         <v>1234</v>
@@ -939,15 +1057,15 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="8">
         <v>1234</v>
@@ -959,7 +1077,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1009,10 +1127,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>12</v>
@@ -1024,18 +1142,18 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>12</v>
@@ -1047,18 +1165,18 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>12</v>
@@ -1070,18 +1188,18 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>12</v>
@@ -1093,33 +1211,33 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1132,7 +1250,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,10 +1284,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1">
         <v>12</v>
@@ -1181,15 +1299,15 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1">
         <v>12</v>
@@ -1201,15 +1319,15 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1">
         <v>12</v>
@@ -1221,15 +1339,15 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>12</v>
@@ -1241,7 +1359,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1253,13 +1371,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4997FD9B-B47B-428B-A8DC-F6C662B513D5}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="45.28515625" customWidth="1"/>
+    <col min="7" max="7" width="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1287,10 +1407,140 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>36</v>
       </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD82EDC-3563-41B7-97BB-77B18BCA3DF2}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="55.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC3C7EE-407E-4327-AA5D-6BA458EBDC28}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1">
         <v>12</v>
@@ -1299,13 +1549,70 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/VRT/TestData/UserManagementTestData.xlsx
+++ b/VRT/TestData/UserManagementTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stored-Code\TestAutomation\Development\Root\Source\VRT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7306E6F-8C3A-4027-89AF-8582F9DE8E72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F55239-74B3-4E80-A512-668C5E6D1360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{FFF56094-AA49-43C9-8779-4520FC744D16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="14" xr2:uid="{FFF56094-AA49-43C9-8779-4520FC744D16}"/>
   </bookViews>
   <sheets>
     <sheet name="tcADMN124" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,13 @@
     <sheet name="tcADMN133" sheetId="6" r:id="rId6"/>
     <sheet name="tcADMN134" sheetId="7" r:id="rId7"/>
     <sheet name="tcADMN146" sheetId="8" r:id="rId8"/>
+    <sheet name="tcADMN146a" sheetId="9" r:id="rId9"/>
+    <sheet name="tcADMN147a" sheetId="12" r:id="rId10"/>
+    <sheet name="tcADMN150" sheetId="13" r:id="rId11"/>
+    <sheet name="tcADMN150a" sheetId="14" r:id="rId12"/>
+    <sheet name="tcADMN159" sheetId="17" r:id="rId13"/>
+    <sheet name="tcADMN160" sheetId="18" r:id="rId14"/>
+    <sheet name="tcADMN188a" sheetId="19" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="99">
   <si>
     <t>Name</t>
   </si>
@@ -163,9 +170,6 @@
     <t>A3Q</t>
   </si>
   <si>
-    <t>User Id cannot be blank. Please provide a valid User Id</t>
-  </si>
-  <si>
     <t>Please select valid user type</t>
   </si>
   <si>
@@ -200,13 +204,151 @@
   </si>
   <si>
     <t>aaa</t>
+  </si>
+  <si>
+    <t>1##</t>
+  </si>
+  <si>
+    <t>$$</t>
+  </si>
+  <si>
+    <t>12T</t>
+  </si>
+  <si>
+    <t>12G</t>
+  </si>
+  <si>
+    <t>12J</t>
+  </si>
+  <si>
+    <t>12K</t>
+  </si>
+  <si>
+    <t>12E</t>
+  </si>
+  <si>
+    <t>Title accepts only upper case , lower case and special character like hyphen, underscore and blank</t>
+  </si>
+  <si>
+    <t>Avv</t>
+  </si>
+  <si>
+    <t>att</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>fh</t>
+  </si>
+  <si>
+    <t>!@as</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>PhoneNo</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Abc@gmail.com</t>
+  </si>
+  <si>
+    <t>Flag1</t>
+  </si>
+  <si>
+    <t>dfsd@fg.com</t>
+  </si>
+  <si>
+    <t>Flag2</t>
+  </si>
+  <si>
+    <t>Abbsggsgs</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>1$%</t>
+  </si>
+  <si>
+    <t>9*</t>
+  </si>
+  <si>
+    <t>!2</t>
+  </si>
+  <si>
+    <t>Flag9</t>
+  </si>
+  <si>
+    <t>Flag7</t>
+  </si>
+  <si>
+    <t>Phone accepts only numbers</t>
+  </si>
+  <si>
+    <t>9890983456</t>
+  </si>
+  <si>
+    <t>@domain.web</t>
+  </si>
+  <si>
+    <t>email@-10.17.17.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Email..email@domain.com </t>
+  </si>
+  <si>
+    <t>Please enter a valid Email ID</t>
+  </si>
+  <si>
+    <t>ylag</t>
+  </si>
+  <si>
+    <t>ylag1</t>
+  </si>
+  <si>
+    <t>ylag2</t>
+  </si>
+  <si>
+    <t>ylag3</t>
+  </si>
+  <si>
+    <t>email@subdomain.domain.com</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
+  </si>
+  <si>
+    <t>test78@test.com</t>
+  </si>
+  <si>
+    <t>email@email.com</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Test65</t>
+  </si>
+  <si>
+    <t>User Id cannot be blank. Please provide valid User Id.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,8 +370,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +416,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -291,10 +453,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -344,8 +507,33 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -661,7 +849,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +923,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -756,7 +944,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -776,10 +964,807 @@
         <v>8</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB13E5F-2ECF-41C5-BE95-F394F239294C}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1">
+        <v>123</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5335B6-CB8D-48D6-B8DE-668C59B57752}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1">
+        <v>123</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>123</v>
+      </c>
+      <c r="D3" s="1">
+        <v>123</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>123</v>
+      </c>
+      <c r="D4" s="1">
+        <v>123</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>123</v>
+      </c>
+      <c r="D5" s="1">
+        <v>123</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{AD9ADDC4-212E-46D9-82AB-293A110243D0}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{B1FE8B19-32AA-42C3-ABDE-812676E261ED}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{1503B510-2D2E-4E4B-AE07-D7A01F63ECAC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300FA0F9-C58F-4C27-AA27-2C4C705A017F}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1">
+        <v>123</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>123</v>
+      </c>
+      <c r="D3" s="1">
+        <v>123</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>123</v>
+      </c>
+      <c r="D4" s="1">
+        <v>123</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>123</v>
+      </c>
+      <c r="D5" s="1">
+        <v>123</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>123</v>
+      </c>
+      <c r="D6" s="1">
+        <v>123</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{EA57F7E5-887A-4AEA-A8DA-CC820CE0A393}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{CC6112AE-8690-448A-8863-7B4BF48679F6}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{AA15A2E3-AAA0-41A8-A5F0-0A8C4A2AA377}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497D9F06-C61B-42E6-9F7B-8B3F90BB191B}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1">
+        <v>123</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="23">
+        <v>576346674</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>123</v>
+      </c>
+      <c r="D3" s="1">
+        <v>123</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>123</v>
+      </c>
+      <c r="D4" s="1">
+        <v>123</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>123</v>
+      </c>
+      <c r="D5" s="1">
+        <v>123</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{3EC98782-6F59-4D29-8DFF-1B8F7C52A76B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F292CD-DD2E-4F85-9B62-1ECD3B744AB0}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1">
+        <v>123</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>123</v>
+      </c>
+      <c r="D3" s="1">
+        <v>123</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>123</v>
+      </c>
+      <c r="D4" s="1">
+        <v>123</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>123</v>
+      </c>
+      <c r="D5" s="1">
+        <v>123</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{D02DE146-9FDA-4F62-9186-D852FA4DC1F3}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{A5A11028-AECF-46A4-BF80-AF57915538EF}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{D60A445B-9B49-46F7-A010-79D253AB1D41}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{376C4FF9-D6CE-49A7-944B-DD7C74735AA0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9AC851-843F-4311-966F-386BB924662B}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1091,7 +2076,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,25 +2459,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1504,8 +2489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC3C7EE-407E-4327-AA5D-6BA458EBDC28}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,7 +2513,7 @@
       <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1537,7 +2522,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>32</v>
@@ -1549,7 +2534,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -1557,7 +2542,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>31</v>
@@ -1569,7 +2554,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -1589,7 +2574,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -1609,7 +2594,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -1618,4 +2603,166 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276B0B36-A61C-445F-BE6E-42C476FED9AF}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="52.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
+        <v>324635</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{22916C02-9A54-4154-9B8E-55B78D691CE6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VRT/TestData/UserManagementTestData.xlsx
+++ b/VRT/TestData/UserManagementTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stored-Code\TestAutomation\Development\Root\Source\VRT\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.ghadei\git\VRT\VRT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8A0DFC-5BA2-49A8-B324-879CBF3D248C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA1C372-6F7E-4E9D-BE92-7E3F454CB609}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="10" xr2:uid="{FFF56094-AA49-43C9-8779-4520FC744D16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FFF56094-AA49-43C9-8779-4520FC744D16}"/>
   </bookViews>
   <sheets>
     <sheet name="tcADMN008" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="176">
   <si>
     <t>Name</t>
   </si>
@@ -127,9 +127,6 @@
     <t>User ID must contain only letters and numbers</t>
   </si>
   <si>
-    <t>1A-</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -187,39 +184,9 @@
     <t>$$</t>
   </si>
   <si>
-    <t>12T</t>
-  </si>
-  <si>
-    <t>12G</t>
-  </si>
-  <si>
-    <t>12J</t>
-  </si>
-  <si>
-    <t>12K</t>
-  </si>
-  <si>
-    <t>12E</t>
-  </si>
-  <si>
     <t>Title accepts only upper case , lower case and special character like hyphen, underscore and blank</t>
   </si>
   <si>
-    <t>Avv</t>
-  </si>
-  <si>
-    <t>att</t>
-  </si>
-  <si>
-    <t>ar</t>
-  </si>
-  <si>
-    <t>pr</t>
-  </si>
-  <si>
-    <t>fh</t>
-  </si>
-  <si>
     <t>!@as</t>
   </si>
   <si>
@@ -259,9 +226,6 @@
     <t>!2</t>
   </si>
   <si>
-    <t>Flag9</t>
-  </si>
-  <si>
     <t>Flag7</t>
   </si>
   <si>
@@ -277,9 +241,6 @@
     <t>email@-10.17.17.100</t>
   </si>
   <si>
-    <t xml:space="preserve"> Email..email@domain.com </t>
-  </si>
-  <si>
     <t>Please enter a valid Email ID</t>
   </si>
   <si>
@@ -314,6 +275,300 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>1#</t>
+  </si>
+  <si>
+    <t>1$</t>
+  </si>
+  <si>
+    <t>1%</t>
+  </si>
+  <si>
+    <t>1^</t>
+  </si>
+  <si>
+    <t>1&amp;</t>
+  </si>
+  <si>
+    <t>1*</t>
+  </si>
+  <si>
+    <t>1()</t>
+  </si>
+  <si>
+    <t>1|</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t>1=</t>
+  </si>
+  <si>
+    <t>1{}</t>
+  </si>
+  <si>
+    <t>1"</t>
+  </si>
+  <si>
+    <t>1[]</t>
+  </si>
+  <si>
+    <t>1'</t>
+  </si>
+  <si>
+    <t>1:</t>
+  </si>
+  <si>
+    <t>1;</t>
+  </si>
+  <si>
+    <t>1?</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>1&lt;&gt;</t>
+  </si>
+  <si>
+    <t>testID12</t>
+  </si>
+  <si>
+    <t>testID13</t>
+  </si>
+  <si>
+    <t>testID14</t>
+  </si>
+  <si>
+    <t>testID15</t>
+  </si>
+  <si>
+    <t>testID16</t>
+  </si>
+  <si>
+    <t>testID17</t>
+  </si>
+  <si>
+    <t>testID18</t>
+  </si>
+  <si>
+    <t>testID19</t>
+  </si>
+  <si>
+    <t>testID20</t>
+  </si>
+  <si>
+    <t>testID21</t>
+  </si>
+  <si>
+    <t>testID22</t>
+  </si>
+  <si>
+    <t>testID23</t>
+  </si>
+  <si>
+    <t>testID24</t>
+  </si>
+  <si>
+    <t>testID25</t>
+  </si>
+  <si>
+    <t>testID26</t>
+  </si>
+  <si>
+    <t>testID27</t>
+  </si>
+  <si>
+    <t>testID28</t>
+  </si>
+  <si>
+    <t>testID29</t>
+  </si>
+  <si>
+    <t>testID30</t>
+  </si>
+  <si>
+    <t>testID31</t>
+  </si>
+  <si>
+    <t>testID32</t>
+  </si>
+  <si>
+    <t>testID33</t>
+  </si>
+  <si>
+    <t>testID34</t>
+  </si>
+  <si>
+    <t>testID35</t>
+  </si>
+  <si>
+    <t>1`</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Welcome5@AM</t>
+  </si>
+  <si>
+    <t>Welcome1@1AM</t>
+  </si>
+  <si>
+    <t>Welcome1@2AM</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>ZZ</t>
+  </si>
+  <si>
+    <t>UU</t>
+  </si>
+  <si>
+    <t>VV</t>
+  </si>
+  <si>
+    <t>WW</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>YY</t>
+  </si>
+  <si>
+    <t>12A</t>
+  </si>
+  <si>
+    <t>Flag3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email..email@domain.com </t>
   </si>
 </sst>
 </file>
@@ -423,7 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,7 +703,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,6 +744,34 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -808,13 +1090,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6844256-8549-4F29-AEC2-F3718E7B5845}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -849,11 +1132,11 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>123</v>
-      </c>
-      <c r="D2" s="1">
-        <v>123</v>
+      <c r="C2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -862,19 +1145,19 @@
         <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="1">
-        <v>123</v>
-      </c>
-      <c r="D3" s="1">
-        <v>123</v>
+      <c r="C3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -883,74 +1166,80 @@
         <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>123</v>
-      </c>
-      <c r="D4" s="1">
-        <v>123</v>
+      <c r="C4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>123</v>
-      </c>
-      <c r="D5" s="1">
-        <v>123</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>37</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C2121726-AE2A-4D97-882A-5FB9B5AADAC6}"/>
+    <hyperlink ref="C3:C5" r:id="rId2" display="Welcome1@2AM" xr:uid="{11891DEF-895B-4AB7-B789-282BD570C267}"/>
+    <hyperlink ref="D2:D5" r:id="rId3" display="Welcome1@2AM" xr:uid="{AFFCC87A-E49C-4FD7-8083-6DCC84B70D52}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497D9F06-C61B-42E6-9F7B-8B3F90BB191B}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" style="27" customWidth="1"/>
     <col min="9" max="9" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -974,10 +1263,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>51</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -985,16 +1274,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>123</v>
-      </c>
-      <c r="D2" s="1">
-        <v>123</v>
+      <c r="C2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -1002,28 +1291,28 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="18">
+      <c r="G2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="31">
         <v>576346674</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>79</v>
+      <c r="I2" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
-        <v>123</v>
-      </c>
-      <c r="D3" s="1">
-        <v>123</v>
+      <c r="C3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -1031,26 +1320,26 @@
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>79</v>
+      <c r="G3" s="17"/>
+      <c r="H3" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>123</v>
-      </c>
-      <c r="D4" s="1">
-        <v>123</v>
+      <c r="C4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -1058,47 +1347,982 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>79</v>
+      <c r="G4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>123</v>
-      </c>
-      <c r="D5" s="1">
-        <v>123</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>79</v>
+      <c r="I23" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1" xr:uid="{3EC98782-6F59-4D29-8DFF-1B8F7C52A76B}"/>
+    <hyperlink ref="H10" r:id="rId2" xr:uid="{C4158F00-6AB2-44CC-A162-79C37BB92E0F}"/>
+    <hyperlink ref="H3" r:id="rId3" xr:uid="{17F27D75-9678-4C00-A3A2-A311179A8F0E}"/>
+    <hyperlink ref="C2:D37" r:id="rId4" display="Welcome5@AM" xr:uid="{B7C04600-A64A-4BF1-B374-1A338CE11DB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1106,12 +2330,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F292CD-DD2E-4F85-9B62-1ECD3B744AB0}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="25.140625" customWidth="1"/>
     <col min="7" max="7" width="14.140625" customWidth="1"/>
@@ -1138,24 +2364,24 @@
         <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>123</v>
-      </c>
-      <c r="D2" s="1">
-        <v>123</v>
+      <c r="C2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -1163,25 +2389,25 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>84</v>
+      <c r="G2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
-        <v>123</v>
-      </c>
-      <c r="D3" s="1">
-        <v>123</v>
+      <c r="C3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -1189,25 +2415,25 @@
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>85</v>
+      <c r="G3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>123</v>
-      </c>
-      <c r="D4" s="1">
-        <v>123</v>
+      <c r="C4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -1215,25 +2441,25 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>86</v>
+      <c r="G4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
-        <v>123</v>
-      </c>
-      <c r="D5" s="1">
-        <v>123</v>
+      <c r="C5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -1241,11 +2467,11 @@
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>87</v>
+      <c r="G5" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1254,6 +2480,7 @@
     <hyperlink ref="H3" r:id="rId2" xr:uid="{A5A11028-AECF-46A4-BF80-AF57915538EF}"/>
     <hyperlink ref="H4" r:id="rId3" xr:uid="{D60A445B-9B49-46F7-A010-79D253AB1D41}"/>
     <hyperlink ref="H5" r:id="rId4" xr:uid="{376C4FF9-D6CE-49A7-944B-DD7C74735AA0}"/>
+    <hyperlink ref="C2:D5" r:id="rId5" display="Welcome5@AM" xr:uid="{D91C68EB-559A-4672-B21E-FB1EA6AA36E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1264,11 +2491,12 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -1295,17 +2523,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1">
-        <v>12</v>
+      <c r="C2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -1315,17 +2543,17 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1">
-        <v>122</v>
-      </c>
-      <c r="D3" s="1">
-        <v>122</v>
+      <c r="C3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -1335,17 +2563,17 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1">
-        <v>123</v>
-      </c>
-      <c r="D4" s="1">
-        <v>123</v>
+      <c r="C4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -1355,16 +2583,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1">
-        <v>145</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1375,17 +2603,17 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1">
-        <v>127</v>
-      </c>
-      <c r="D6" s="1">
-        <v>127</v>
+      <c r="C6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -1395,28 +2623,35 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{B42664F6-5F98-42FF-A5AA-162C1F0E10E8}"/>
+    <hyperlink ref="C3:C6" r:id="rId2" display="Welcome1@1AM" xr:uid="{05F911E0-A689-45CD-BDAC-2B2EAB786FFE}"/>
+    <hyperlink ref="D2:D6" r:id="rId3" display="Welcome1@1AM" xr:uid="{94FF7C9C-80AA-44C9-AF14-D5AAAA001E5B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D45820-850F-4509-AC94-52EF65FB8800}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" customWidth="1"/>
     <col min="7" max="7" width="68.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1445,11 +2680,11 @@
       <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="8">
-        <v>1234</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1234</v>
+      <c r="C2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>8</v>
@@ -1466,13 +2701,13 @@
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1234</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1234</v>
+        <v>98</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>8</v>
@@ -1489,13 +2724,13 @@
         <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1234</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1234</v>
+        <v>99</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>8</v>
@@ -1512,13 +2747,13 @@
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1234</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1234</v>
+        <v>100</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>8</v>
@@ -1535,13 +2770,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1234</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1234</v>
+        <v>101</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>8</v>
@@ -1553,8 +2788,473 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{44D4DE88-4EA5-4A26-A1D6-2C3FF668F4CE}"/>
+    <hyperlink ref="C2:C26" r:id="rId2" display="Welcome1@1AM" xr:uid="{11FCF83D-E288-44A3-B31E-840CE09505C6}"/>
+    <hyperlink ref="D3:D26" r:id="rId3" display="Welcome1@1AM" xr:uid="{0F496E0C-BA57-4B9F-8812-C2DB598D4DF1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1563,21 +3263,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828ED7CA-A5E7-42AA-9988-3D2A4554DADC}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1594,17 +3296,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -1614,17 +3316,17 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -1634,17 +3336,17 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -1654,17 +3356,17 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -1674,17 +3376,17 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="5">
         <v>989</v>
       </c>
-      <c r="C6" s="1">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1">
-        <v>12</v>
+      <c r="C6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -1694,68 +3396,71 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2:D6" r:id="rId1" display="Welcome1@1AM" xr:uid="{0C255B23-8B7A-4CE7-A256-02532A1590CF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085DC14B-8E32-4F79-8AE0-D17B1FBB9EC7}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="43.5703125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>32</v>
+      <c r="A2" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -1763,22 +3468,22 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="C3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -1786,22 +3491,22 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -1809,29 +3514,519 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="C5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A88E0C2B-CE02-4323-B69E-E2BF3882BCFF}"/>
+    <hyperlink ref="C3:C26" r:id="rId2" display="Welcome5@AM" xr:uid="{4DE7AC57-5BB4-4397-9193-2A6773059C5D}"/>
+    <hyperlink ref="D26" r:id="rId3" xr:uid="{C772C36B-C409-4781-AEC0-3C0523F5163E}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{1186597A-5D0D-4A41-A3C4-8E207A8EB320}"/>
+    <hyperlink ref="D3:D25" r:id="rId5" display="Welcome5@AM" xr:uid="{76EECD8C-BFC5-41DD-988E-4673835BC9F0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1841,13 +4036,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17" style="22" customWidth="1"/>
+    <col min="5" max="5" width="17" style="21" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1864,7 +4060,7 @@
       <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1873,19 +4069,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -1893,19 +4089,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -1916,16 +4112,16 @@
         <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -1936,38 +4132,42 @@
         <v>24</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2:D5" r:id="rId1" display="Welcome5@AM" xr:uid="{BDCCD831-D89F-40FF-A9AB-5C66106333C7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276B0B36-A61C-445F-BE6E-42C476FED9AF}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E30" sqref="E3:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="21" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" customWidth="1"/>
     <col min="7" max="7" width="52.5703125" customWidth="1"/>
   </cols>
@@ -1985,7 +4185,7 @@
       <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1997,16 +4197,16 @@
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1">
-        <v>12</v>
+        <v>173</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E2" s="5">
         <v>324635</v>
@@ -2014,45 +4214,45 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>53</v>
+      <c r="G2" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="1">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
-        <v>12</v>
+        <v>173</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>53</v>
+      <c r="G3" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>12</v>
+        <v>173</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>9</v>
@@ -2060,59 +4260,612 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>53</v>
+      <c r="G4" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="1">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
-        <v>12</v>
+        <v>173</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>53</v>
+      <c r="G5" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="1">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1">
-        <v>12</v>
+        <v>173</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>53</v>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{22916C02-9A54-4154-9B8E-55B78D691CE6}"/>
+    <hyperlink ref="C2:D30" r:id="rId2" display="Welcome5@AM" xr:uid="{A4710FFD-B39A-4720-BBE3-5FD5CF6A6B25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2123,11 +4876,12 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" customWidth="1"/>
@@ -2155,24 +4909,24 @@
         <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>123</v>
-      </c>
-      <c r="D2" s="1">
-        <v>123</v>
+      <c r="C2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -2180,25 +4934,25 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>75</v>
+      <c r="G2" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
-        <v>123</v>
-      </c>
-      <c r="D3" s="1">
-        <v>123</v>
+      <c r="C3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -2206,21 +4960,21 @@
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>123</v>
-      </c>
-      <c r="D4" s="1">
-        <v>123</v>
+      <c r="C4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -2228,25 +4982,25 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>89</v>
+      <c r="G4" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
-        <v>123</v>
-      </c>
-      <c r="D5" s="1">
-        <v>123</v>
+      <c r="C5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -2254,11 +5008,11 @@
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>90</v>
+      <c r="G5" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2266,26 +5020,28 @@
     <hyperlink ref="H2" r:id="rId1" xr:uid="{AD9ADDC4-212E-46D9-82AB-293A110243D0}"/>
     <hyperlink ref="H4" r:id="rId2" xr:uid="{B1FE8B19-32AA-42C3-ABDE-812676E261ED}"/>
     <hyperlink ref="H5" r:id="rId3" xr:uid="{1503B510-2D2E-4E4B-AE07-D7A01F63ECAC}"/>
+    <hyperlink ref="C2:D5" r:id="rId4" display="Welcome5@AM" xr:uid="{B01030F1-AC51-4FAC-B8D0-D2CBCF7F8DAD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300FA0F9-C58F-4C27-AA27-2C4C705A017F}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I4"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="21" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" customWidth="1"/>
     <col min="9" max="9" width="27.5703125" customWidth="1"/>
   </cols>
@@ -2309,11 +5065,11 @@
       <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>61</v>
+      <c r="G1" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -2321,16 +5077,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>123</v>
-      </c>
-      <c r="D2" s="1">
-        <v>123</v>
+      <c r="C2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -2338,28 +5094,28 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>67</v>
+      <c r="G2" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>74</v>
+        <v>52</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
-        <v>123</v>
-      </c>
-      <c r="D3" s="1">
-        <v>123</v>
+      <c r="C3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -2367,26 +5123,26 @@
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>68</v>
+      <c r="G3" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="17" t="s">
-        <v>74</v>
+      <c r="I3" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>123</v>
-      </c>
-      <c r="D4" s="1">
-        <v>123</v>
+      <c r="C4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -2394,28 +5150,28 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>69</v>
+      <c r="G4" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
-        <v>123</v>
-      </c>
-      <c r="D5" s="1">
-        <v>123</v>
+      <c r="C5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -2423,28 +5179,28 @@
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>70</v>
+      <c r="G5" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>74</v>
+        <v>54</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>123</v>
-      </c>
-      <c r="D6" s="1">
-        <v>123</v>
+      <c r="C6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -2452,12 +5208,824 @@
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>71</v>
+      <c r="G6" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="H6" s="8"/>
-      <c r="I6" s="17" t="s">
-        <v>74</v>
+      <c r="I6" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2465,6 +6033,65 @@
     <hyperlink ref="H2" r:id="rId1" xr:uid="{EA57F7E5-887A-4AEA-A8DA-CC820CE0A393}"/>
     <hyperlink ref="H4" r:id="rId2" xr:uid="{CC6112AE-8690-448A-8863-7B4BF48679F6}"/>
     <hyperlink ref="H5" r:id="rId3" xr:uid="{AA15A2E3-AAA0-41A8-A5F0-0A8C4A2AA377}"/>
+    <hyperlink ref="C2:D5" r:id="rId4" display="Welcome5@AM" xr:uid="{D92C17F5-900E-40DC-AA43-338D8390D3CE}"/>
+    <hyperlink ref="C6:D6" r:id="rId5" display="Welcome5@AM" xr:uid="{ED41AB86-3769-4DB3-B6FD-A224F5152FCD}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{07EEF8FE-24F3-4887-81E4-39210BA995CA}"/>
+    <hyperlink ref="C7:D7" r:id="rId7" display="Welcome5@AM" xr:uid="{2AFDF5E5-263A-448B-AC8F-B65B7EB37429}"/>
+    <hyperlink ref="C8:D8" r:id="rId8" display="Welcome5@AM" xr:uid="{30E68E61-1A3E-4D44-9FAF-22C0FF5AC2D9}"/>
+    <hyperlink ref="C9:D9" r:id="rId9" display="Welcome5@AM" xr:uid="{272B02DB-EFCD-4F83-BC37-A2B81265A938}"/>
+    <hyperlink ref="C10:D10" r:id="rId10" display="Welcome5@AM" xr:uid="{23776387-88B3-4865-BC61-1173927F616F}"/>
+    <hyperlink ref="C11:D11" r:id="rId11" display="Welcome5@AM" xr:uid="{688EFA80-C44B-495A-ADD9-4C29C04137FC}"/>
+    <hyperlink ref="C12:D12" r:id="rId12" display="Welcome5@AM" xr:uid="{E2077110-AEA2-47E1-B574-5CEF738247A9}"/>
+    <hyperlink ref="C13:D13" r:id="rId13" display="Welcome5@AM" xr:uid="{056F4A11-8B19-4F10-ADD4-41FC334D0988}"/>
+    <hyperlink ref="C14:D14" r:id="rId14" display="Welcome5@AM" xr:uid="{6401D36B-FE68-46DB-B2D7-F718AB787B8C}"/>
+    <hyperlink ref="C15:D15" r:id="rId15" display="Welcome5@AM" xr:uid="{F353C2E1-CCDC-4648-A5CA-CDA8BA0F48E0}"/>
+    <hyperlink ref="C16:D16" r:id="rId16" display="Welcome5@AM" xr:uid="{8E8EAE19-3220-4EAC-ABD2-F910B13E6163}"/>
+    <hyperlink ref="C17:D17" r:id="rId17" display="Welcome5@AM" xr:uid="{1F5CE8A6-CBC2-4AE9-8CBE-147C047B1DD3}"/>
+    <hyperlink ref="C18:D18" r:id="rId18" display="Welcome5@AM" xr:uid="{C170AFC2-A48F-4A33-9521-CC95E393486C}"/>
+    <hyperlink ref="C19:D19" r:id="rId19" display="Welcome5@AM" xr:uid="{23BABBD0-B4B7-4C35-B293-97E8A2B0F42B}"/>
+    <hyperlink ref="C20:D20" r:id="rId20" display="Welcome5@AM" xr:uid="{793E80B4-B1D5-434D-A907-A12FBCE2A98D}"/>
+    <hyperlink ref="C21:D21" r:id="rId21" display="Welcome5@AM" xr:uid="{843738B6-4A60-4426-8AC0-590EC50A7634}"/>
+    <hyperlink ref="C22:D22" r:id="rId22" display="Welcome5@AM" xr:uid="{38A2F672-2D14-4853-A95F-33A58EC6A5CB}"/>
+    <hyperlink ref="C23:D23" r:id="rId23" display="Welcome5@AM" xr:uid="{5737430E-99AE-4F35-B982-34566AD455BA}"/>
+    <hyperlink ref="C24:D24" r:id="rId24" display="Welcome5@AM" xr:uid="{FBA3808B-2EF6-42CB-AA20-39FDD3AAA396}"/>
+    <hyperlink ref="C25:D25" r:id="rId25" display="Welcome5@AM" xr:uid="{76C16F92-0B37-4B2E-874D-C32379F42A07}"/>
+    <hyperlink ref="C26:D26" r:id="rId26" display="Welcome5@AM" xr:uid="{BE75940E-BE62-4EAA-B9D3-73F3DB8C6190}"/>
+    <hyperlink ref="C27:D27" r:id="rId27" display="Welcome5@AM" xr:uid="{A8CBD6D4-7EB1-4DB2-A10C-D36E3DB49C0D}"/>
+    <hyperlink ref="C28:D28" r:id="rId28" display="Welcome5@AM" xr:uid="{6E161A5F-3196-4B07-83AF-927DA0B5D0A8}"/>
+    <hyperlink ref="C29:D29" r:id="rId29" display="Welcome5@AM" xr:uid="{B5223A18-7443-4664-88C0-2B889B3EAADA}"/>
+    <hyperlink ref="C30:D30" r:id="rId30" display="Welcome5@AM" xr:uid="{3624F6CF-AC0D-45B0-BF2D-31CF531CAC89}"/>
+    <hyperlink ref="C31:D31" r:id="rId31" display="Welcome5@AM" xr:uid="{871657E1-7919-4B57-83D8-046CFD285092}"/>
+    <hyperlink ref="C32:D32" r:id="rId32" display="Welcome5@AM" xr:uid="{C53ED090-4C8C-4418-B644-7891E0EECE9B}"/>
+    <hyperlink ref="C33:D33" r:id="rId33" display="Welcome5@AM" xr:uid="{F26189A1-BFFE-423C-9845-5C6284CF2074}"/>
+    <hyperlink ref="C34:D34" r:id="rId34" display="Welcome5@AM" xr:uid="{0C4BA471-BCA7-40F1-94A9-BF3AA5F50EFB}"/>
+    <hyperlink ref="H7" r:id="rId35" xr:uid="{C081A1C8-4887-4DB0-8241-3137CF21D350}"/>
+    <hyperlink ref="H8" r:id="rId36" xr:uid="{98868AC3-BAF8-4B4A-96A4-D6FE297EB8D8}"/>
+    <hyperlink ref="H9" r:id="rId37" xr:uid="{1E59E9CB-1C36-4C82-AFB8-B03E3CE92DDA}"/>
+    <hyperlink ref="H10" r:id="rId38" xr:uid="{6B30C799-2265-4334-B18B-F16F3B1039EC}"/>
+    <hyperlink ref="H11" r:id="rId39" xr:uid="{3AD5769C-8BB5-4515-81FA-8EEF48DD7FC1}"/>
+    <hyperlink ref="H12" r:id="rId40" xr:uid="{407BE3DE-7860-445A-B3E1-E58B65E248C6}"/>
+    <hyperlink ref="H13" r:id="rId41" xr:uid="{53B09866-3A84-47C3-B578-061E0C7DE73F}"/>
+    <hyperlink ref="H14" r:id="rId42" xr:uid="{8158F0EA-E4CC-4999-B8D0-0927C1A5897D}"/>
+    <hyperlink ref="H15" r:id="rId43" xr:uid="{5957BB61-1B67-4DE5-83AF-56E263D9B38C}"/>
+    <hyperlink ref="H16" r:id="rId44" xr:uid="{831A16AE-97B6-46E3-9597-57E084119FAD}"/>
+    <hyperlink ref="H17" r:id="rId45" xr:uid="{467065A9-D33C-4263-92FA-03117E96CFF2}"/>
+    <hyperlink ref="H18" r:id="rId46" xr:uid="{C749FC3A-3130-4952-BBEA-15D0F32C56D9}"/>
+    <hyperlink ref="H19" r:id="rId47" xr:uid="{240B0424-7598-4015-95F2-9645B059D714}"/>
+    <hyperlink ref="H20" r:id="rId48" xr:uid="{D531AF87-5AF0-44F5-A7CE-4280924B1558}"/>
+    <hyperlink ref="H21" r:id="rId49" xr:uid="{C0B46494-7F7F-4072-A5A1-2BFE15698EA3}"/>
+    <hyperlink ref="H22" r:id="rId50" xr:uid="{8DBBD47F-C445-4135-9BAB-C0A8046F9E4B}"/>
+    <hyperlink ref="H23" r:id="rId51" xr:uid="{F4488285-2257-4574-91E7-CAF960EF85E2}"/>
+    <hyperlink ref="H24" r:id="rId52" xr:uid="{BB26D739-F46A-4300-874E-4C3B11E489A7}"/>
+    <hyperlink ref="H25" r:id="rId53" xr:uid="{64F6B49C-331F-46EE-B615-1545180F2133}"/>
+    <hyperlink ref="H26" r:id="rId54" xr:uid="{A9796449-AF57-4483-BFEB-4E800F413762}"/>
+    <hyperlink ref="H27" r:id="rId55" xr:uid="{0189BE95-B301-4869-99DE-FC7BBC980FD0}"/>
+    <hyperlink ref="H28" r:id="rId56" xr:uid="{1EAE00A0-3B49-4EAB-90D0-7DB071C4AD63}"/>
+    <hyperlink ref="H29" r:id="rId57" xr:uid="{A28A0F29-BEF9-4F02-9211-89F491B78F37}"/>
+    <hyperlink ref="H30" r:id="rId58" xr:uid="{24C38B9B-EC2E-4B85-93AF-3EFFC5500E67}"/>
+    <hyperlink ref="H31" r:id="rId59" xr:uid="{5B4CFEF0-7F54-4D11-AE5F-B470BF08D680}"/>
+    <hyperlink ref="H32" r:id="rId60" xr:uid="{F1CC19C0-10D0-47DB-9932-B17C9EA640C1}"/>
+    <hyperlink ref="H33" r:id="rId61" xr:uid="{C67F1C21-96A7-4CF2-9764-035A8F099B46}"/>
+    <hyperlink ref="H34" r:id="rId62" xr:uid="{E6802F14-A45B-42BF-BFB1-DF3BCF68AF0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VRT/TestData/UserManagementTestData.xlsx
+++ b/VRT/TestData/UserManagementTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.ghadei\git\VRT\VRT\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\git\VRT\VRT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA1C372-6F7E-4E9D-BE92-7E3F454CB609}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA9220D-B453-49A9-9CDD-55BB2F4F4FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FFF56094-AA49-43C9-8779-4520FC744D16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="900" firstSheet="1" activeTab="5" xr2:uid="{FFF56094-AA49-43C9-8779-4520FC744D16}"/>
   </bookViews>
   <sheets>
     <sheet name="tcADMN008" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="180">
   <si>
     <t>Name</t>
   </si>
@@ -160,12 +160,6 @@
     <t>Select</t>
   </si>
   <si>
-    <t>Ac_</t>
-  </si>
-  <si>
-    <t>a-B5</t>
-  </si>
-  <si>
     <t>Sr-Manager</t>
   </si>
   <si>
@@ -569,6 +563,24 @@
   </si>
   <si>
     <t xml:space="preserve">Email..email@domain.com </t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>ADMN021</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>Sr-Test_Manager</t>
   </si>
 </sst>
 </file>
@@ -1090,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6844256-8549-4F29-AEC2-F3718E7B5845}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,10 +1145,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -1154,10 +1166,10 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -1166,7 +1178,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1177,10 +1189,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -1198,10 +1210,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -1263,10 +1275,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -1274,16 +1286,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -1292,27 +1304,27 @@
         <v>11</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H2" s="31">
         <v>576346674</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -1322,24 +1334,24 @@
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -1348,27 +1360,27 @@
         <v>11</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H4" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -1377,27 +1389,27 @@
         <v>11</v>
       </c>
       <c r="G5" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>65</v>
-      </c>
       <c r="I5" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -1406,27 +1418,27 @@
         <v>11</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -1435,27 +1447,27 @@
         <v>11</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
@@ -1464,27 +1476,27 @@
         <v>11</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -1493,27 +1505,27 @@
         <v>11</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -1522,27 +1534,27 @@
         <v>11</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
@@ -1551,27 +1563,27 @@
         <v>11</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
@@ -1580,27 +1592,27 @@
         <v>11</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
@@ -1609,27 +1621,27 @@
         <v>11</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
@@ -1638,27 +1650,27 @@
         <v>11</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H14" s="31" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
@@ -1667,27 +1679,27 @@
         <v>11</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>16</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
@@ -1696,27 +1708,27 @@
         <v>11</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H16" s="31" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
@@ -1725,27 +1737,27 @@
         <v>11</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
@@ -1754,27 +1766,27 @@
         <v>11</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
@@ -1783,27 +1795,27 @@
         <v>11</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
@@ -1812,27 +1824,27 @@
         <v>11</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
@@ -1841,27 +1853,27 @@
         <v>11</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>8</v>
@@ -1870,27 +1882,27 @@
         <v>11</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>8</v>
@@ -1899,27 +1911,27 @@
         <v>11</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>8</v>
@@ -1928,27 +1940,27 @@
         <v>11</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>8</v>
@@ -1957,27 +1969,27 @@
         <v>11</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>8</v>
@@ -1986,27 +1998,27 @@
         <v>11</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>8</v>
@@ -2015,27 +2027,27 @@
         <v>11</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>8</v>
@@ -2044,27 +2056,27 @@
         <v>11</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
@@ -2073,27 +2085,27 @@
         <v>11</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>8</v>
@@ -2102,27 +2114,27 @@
         <v>11</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>8</v>
@@ -2131,27 +2143,27 @@
         <v>11</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>8</v>
@@ -2160,27 +2172,27 @@
         <v>11</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>8</v>
@@ -2189,27 +2201,27 @@
         <v>11</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>8</v>
@@ -2218,27 +2230,27 @@
         <v>11</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>8</v>
@@ -2247,27 +2259,27 @@
         <v>11</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>8</v>
@@ -2276,27 +2288,27 @@
         <v>11</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>8</v>
@@ -2305,13 +2317,13 @@
         <v>11</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2364,24 +2376,24 @@
         <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -2390,24 +2402,24 @@
         <v>11</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -2416,24 +2428,24 @@
         <v>11</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -2442,24 +2454,24 @@
         <v>11</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -2468,10 +2480,10 @@
         <v>11</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2530,10 +2542,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -2550,10 +2562,10 @@
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -2570,10 +2582,10 @@
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -2590,10 +2602,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -2610,10 +2622,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -2681,10 +2693,10 @@
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>8</v>
@@ -2701,13 +2713,13 @@
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>8</v>
@@ -2724,13 +2736,13 @@
         <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>8</v>
@@ -2747,13 +2759,13 @@
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>8</v>
@@ -2770,13 +2782,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>8</v>
@@ -2790,16 +2802,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>8</v>
@@ -2813,16 +2825,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>8</v>
@@ -2836,16 +2848,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>8</v>
@@ -2859,16 +2871,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>8</v>
@@ -2882,16 +2894,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>8</v>
@@ -2905,16 +2917,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>8</v>
@@ -2928,16 +2940,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>8</v>
@@ -2951,16 +2963,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>8</v>
@@ -2974,16 +2986,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>8</v>
@@ -2997,16 +3009,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>8</v>
@@ -3020,16 +3032,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>8</v>
@@ -3043,16 +3055,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>8</v>
@@ -3066,16 +3078,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>8</v>
@@ -3089,16 +3101,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>8</v>
@@ -3112,16 +3124,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>8</v>
@@ -3135,16 +3147,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>8</v>
@@ -3158,16 +3170,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>8</v>
@@ -3181,16 +3193,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>8</v>
@@ -3204,16 +3216,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>8</v>
@@ -3227,16 +3239,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>8</v>
@@ -3261,10 +3273,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828ED7CA-A5E7-42AA-9988-3D2A4554DADC}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F6"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3303,10 +3315,10 @@
         <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -3323,10 +3335,10 @@
         <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -3343,10 +3355,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -3363,41 +3375,21 @@
         <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="5">
-        <v>989</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2:D6" r:id="rId1" display="Welcome1@1AM" xr:uid="{0C255B23-8B7A-4CE7-A256-02532A1590CF}"/>
+    <hyperlink ref="C2:D5" r:id="rId1" display="Welcome1@1AM" xr:uid="{0C255B23-8B7A-4CE7-A256-02532A1590CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3405,10 +3397,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085DC14B-8E32-4F79-8AE0-D17B1FBB9EC7}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3452,10 +3444,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>8</v>
@@ -3475,10 +3467,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
@@ -3495,13 +3487,13 @@
         <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>8</v>
@@ -3521,10 +3513,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>8</v>
@@ -3538,16 +3530,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>8</v>
@@ -3561,16 +3553,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>8</v>
@@ -3584,16 +3576,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>8</v>
@@ -3607,16 +3599,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>8</v>
@@ -3630,16 +3622,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>8</v>
@@ -3653,16 +3645,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>8</v>
@@ -3676,16 +3668,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>8</v>
@@ -3699,16 +3691,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>8</v>
@@ -3722,16 +3714,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>8</v>
@@ -3745,16 +3737,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>8</v>
@@ -3768,16 +3760,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>8</v>
@@ -3791,16 +3783,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>8</v>
@@ -3814,16 +3806,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>8</v>
@@ -3837,16 +3829,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>8</v>
@@ -3860,16 +3852,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>8</v>
@@ -3883,16 +3875,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>8</v>
@@ -3906,16 +3898,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>8</v>
@@ -3929,16 +3921,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>8</v>
@@ -3952,16 +3944,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>8</v>
@@ -3975,16 +3967,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>8</v>
@@ -3998,16 +3990,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>8</v>
@@ -4017,6 +4009,52 @@
       </c>
       <c r="G26" s="5" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4026,6 +4064,10 @@
     <hyperlink ref="D26" r:id="rId3" xr:uid="{C772C36B-C409-4781-AEC0-3C0523F5163E}"/>
     <hyperlink ref="D2" r:id="rId4" xr:uid="{1186597A-5D0D-4A41-A3C4-8E207A8EB320}"/>
     <hyperlink ref="D3:D25" r:id="rId5" display="Welcome5@AM" xr:uid="{76EECD8C-BFC5-41DD-988E-4673835BC9F0}"/>
+    <hyperlink ref="C27" r:id="rId6" xr:uid="{FA37856E-EBB8-4FC4-B95C-013400FE4D2C}"/>
+    <hyperlink ref="D27" r:id="rId7" xr:uid="{37856885-686E-40FF-85AC-BE52FF23D971}"/>
+    <hyperlink ref="C28" r:id="rId8" xr:uid="{1A41E7A8-F126-4F9C-97FC-EE955D002C6D}"/>
+    <hyperlink ref="D28" r:id="rId9" xr:uid="{0DEA2A97-A822-4493-BD75-C8CF27EE9246}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4033,10 +4075,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC3C7EE-407E-4327-AA5D-6BA458EBDC28}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4069,19 +4111,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -4089,19 +4131,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -4109,19 +4151,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -4129,27 +4171,70 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2:D5" r:id="rId1" display="Welcome5@AM" xr:uid="{BDCCD831-D89F-40FF-A9AB-5C66106333C7}"/>
+    <hyperlink ref="C6:D6" r:id="rId2" display="Welcome5@AM" xr:uid="{6C6FDF73-2F3F-4ACC-9E42-2CBCC94632BB}"/>
+    <hyperlink ref="C7:D7" r:id="rId3" display="Welcome5@AM" xr:uid="{7E5438F5-8B96-4780-9B11-13787DEEDD19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4197,16 +4282,16 @@
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E2" s="5">
         <v>324635</v>
@@ -4215,44 +4300,44 @@
         <v>11</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>9</v>
@@ -4261,67 +4346,67 @@
         <v>11</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>13</v>
@@ -4330,21 +4415,21 @@
         <v>11</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -4353,21 +4438,21 @@
         <v>11</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>14</v>
@@ -4376,21 +4461,21 @@
         <v>11</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>15</v>
@@ -4399,467 +4484,467 @@
         <v>11</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="C25" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4909,24 +4994,24 @@
         <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -4935,24 +5020,24 @@
         <v>11</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -4965,16 +5050,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -4983,24 +5068,24 @@
         <v>11</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -5009,10 +5094,10 @@
         <v>11</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5066,10 +5151,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -5077,16 +5162,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -5095,27 +5180,27 @@
         <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -5124,25 +5209,25 @@
         <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -5151,27 +5236,27 @@
         <v>11</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -5180,27 +5265,27 @@
         <v>11</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -5209,25 +5294,25 @@
         <v>11</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -5236,27 +5321,27 @@
         <v>11</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
@@ -5268,24 +5353,24 @@
         <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -5294,27 +5379,27 @@
         <v>11</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -5323,27 +5408,27 @@
         <v>11</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
@@ -5355,24 +5440,24 @@
         <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
@@ -5384,24 +5469,24 @@
         <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
@@ -5413,24 +5498,24 @@
         <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
@@ -5442,24 +5527,24 @@
         <v>15</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
@@ -5468,27 +5553,27 @@
         <v>11</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
@@ -5497,27 +5582,27 @@
         <v>11</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
@@ -5526,27 +5611,27 @@
         <v>11</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
@@ -5555,27 +5640,27 @@
         <v>11</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
@@ -5584,27 +5669,27 @@
         <v>11</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
@@ -5613,27 +5698,27 @@
         <v>11</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
@@ -5642,27 +5727,27 @@
         <v>11</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>8</v>
@@ -5671,27 +5756,27 @@
         <v>11</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>8</v>
@@ -5700,27 +5785,27 @@
         <v>11</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>8</v>
@@ -5729,27 +5814,27 @@
         <v>11</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>8</v>
@@ -5758,27 +5843,27 @@
         <v>11</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>8</v>
@@ -5787,27 +5872,27 @@
         <v>11</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>8</v>
@@ -5816,27 +5901,27 @@
         <v>11</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>8</v>
@@ -5845,27 +5930,27 @@
         <v>11</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
@@ -5874,27 +5959,27 @@
         <v>11</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>8</v>
@@ -5903,27 +5988,27 @@
         <v>11</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>8</v>
@@ -5932,27 +6017,27 @@
         <v>11</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>8</v>
@@ -5961,27 +6046,27 @@
         <v>11</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>8</v>
@@ -5990,27 +6075,27 @@
         <v>11</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>8</v>
@@ -6019,13 +6104,13 @@
         <v>11</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
